--- a/程序用_正式版_对照版/ElementsDamage.xlsx
+++ b/程序用_正式版_对照版/ElementsDamage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfire_config_table\程序用_正式版_基础版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0DC0BA-B3C3-458E-BE94-F26CBE7A93F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A9290A-2959-454C-9B04-A06AFBC7B120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="870" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10095" yWindow="4395" windowWidth="28485" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ElementsDamage" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
+    <author>86176</author>
   </authors>
   <commentList>
     <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -112,6 +113,41 @@
             <charset val="134"/>
           </rPr>
           <t>将报错</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="1" shapeId="0" xr:uid="{817E30B7-7E6F-47D3-A7AC-80A88031B5E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>86176:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+E3    可能是空罐子1号
+E4    可能是空罐子2号
+E5    可能是空罐子3号
+E6    子弹补充罐
+E25   血包罐
+E26   高级子弹罐
+E28   高级子弹罐
+E29   高级血包罐
+E30   大量金币罐
+E31   盛宴掉落，必定掉落子弹+血包+金币</t>
         </r>
       </text>
     </comment>
@@ -239,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
   </si>
@@ -394,13 +430,55 @@
   <si>
     <t>TableName: "ElementsDamage" Package: "neogame"</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementType</t>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可损坏元素类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E28</t>
+  </si>
+  <si>
+    <t>E29</t>
+  </si>
+  <si>
+    <t>E30</t>
+  </si>
+  <si>
+    <t>E31</t>
+  </si>
+  <si>
+    <t>E25</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -494,8 +572,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,8 +593,13 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -531,16 +622,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,10 +668,14 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="输入" xfId="1" builtinId="20"/>
+    <cellStyle name="注释" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -874,64 +987,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
-    <col min="9" max="9" width="21.125" customWidth="1"/>
-    <col min="10" max="10" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="18.875" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="11" max="11" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -948,55 +1065,61 @@
       <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="C3"/>
+      <c r="D3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>ROW(A5)-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
+      <c r="B5" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
@@ -1019,30 +1142,33 @@
       <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:A14" si="0">ROW(A6)-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>10</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1052,30 +1178,33 @@
       <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1085,30 +1214,33 @@
       <c r="I7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1118,63 +1250,69 @@
       <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="4">
         <v>1003</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>100</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>1004</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>100</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>100</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="G10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1184,63 +1322,69 @@
       <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="4">
         <v>1003</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>5</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>100</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>1004</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>1</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>5</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>100</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>100</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1250,73 +1394,82 @@
       <c r="I12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="4">
         <v>1001</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>5</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>100</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>3</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>70</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>10</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>100</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>4</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>100</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>35</v>
       </c>
     </row>

--- a/程序用_正式版_对照版/ElementsDamage.xlsx
+++ b/程序用_正式版_对照版/ElementsDamage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfire_config_table\程序用_正式版_基础版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A9290A-2959-454C-9B04-A06AFBC7B120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC201C0-789F-41D4-92E6-23FD2E69459A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10095" yWindow="4395" windowWidth="28485" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="9465" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ElementsDamage" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
   </si>
@@ -472,6 +472,14 @@
   </si>
   <si>
     <t>E6</t>
+  </si>
+  <si>
+    <t>ElementType[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -990,7 +998,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1006,6 +1014,7 @@
     <col min="9" max="9" width="18.875" customWidth="1"/>
     <col min="10" max="10" width="21.125" customWidth="1"/>
     <col min="11" max="11" width="33.625" customWidth="1"/>
+    <col min="12" max="12" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1051,10 +1060,10 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -1063,9 +1072,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>2</v>
       </c>
       <c r="K2" t="s">

--- a/程序用_正式版_对照版/ElementsDamage.xlsx
+++ b/程序用_正式版_对照版/ElementsDamage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfire_config_table\程序用_正式版_基础版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC201C0-789F-41D4-92E6-23FD2E69459A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACAB641-71FE-4575-B851-7730D143006A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="9465" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="1110" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ElementsDamage" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
   </si>
@@ -319,42 +319,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>1001|1003|1004|1005</t>
-  </si>
-  <si>
     <t>10|30|30|3</t>
   </si>
   <si>
-    <t>1005|1006</t>
-  </si>
-  <si>
     <t>90|10</t>
   </si>
   <si>
-    <t>1007|1006</t>
-  </si>
-  <si>
     <t>20|80</t>
   </si>
   <si>
-    <t>1001|1002</t>
-  </si>
-  <si>
     <t>70|30</t>
   </si>
   <si>
-    <t>1001|1002|1003|1004</t>
-  </si>
-  <si>
     <t>80|10|80|80</t>
   </si>
   <si>
-    <t>1001|1005|1006|1007</t>
-  </si>
-  <si>
     <t>100|80|17|3</t>
   </si>
   <si>
@@ -383,9 +362,6 @@
   </si>
   <si>
     <t>大量金币罐</t>
-  </si>
-  <si>
-    <t>盛宴掉落，必定掉落子弹+血包+金币</t>
   </si>
   <si>
     <t>DropGroup1</t>
@@ -443,42 +419,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E28</t>
-  </si>
-  <si>
-    <t>E29</t>
-  </si>
-  <si>
-    <t>E30</t>
-  </si>
-  <si>
-    <t>E31</t>
-  </si>
-  <si>
-    <t>E25</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>ElementType[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32[]</t>
+    <t>E000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E402</t>
+  </si>
+  <si>
+    <t>E403</t>
+  </si>
+  <si>
+    <t>E404</t>
+  </si>
+  <si>
+    <r>
+      <t>E40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>E406</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>E407</t>
+  </si>
+  <si>
+    <t>E408</t>
+  </si>
+  <si>
+    <t>E409</t>
+  </si>
+  <si>
+    <t>E000</t>
+  </si>
+  <si>
+    <t>E301|E303|E304|E305</t>
+  </si>
+  <si>
+    <t>E301|E303|E304|E305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E305|E306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E307|E306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E301|E302|E303|E304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E301|E305|E306|E307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E301|E302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛宴掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter: "|"</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]ElementType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,6 +718,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -998,7 +1042,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1022,34 +1066,34 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1057,13 +1101,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -1072,10 +1116,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
@@ -1084,21 +1128,32 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="D3"/>
+      <c r="C3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
@@ -1134,34 +1189,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1170,13 +1225,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -1185,19 +1240,19 @@
         <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1206,13 +1261,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1221,19 +1276,19 @@
         <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1242,13 +1297,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1257,19 +1312,19 @@
         <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1278,10 +1333,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1003</v>
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -1292,8 +1347,8 @@
       <c r="F9" s="4">
         <v>100</v>
       </c>
-      <c r="G9" s="4">
-        <v>1004</v>
+      <c r="G9" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
@@ -1305,7 +1360,7 @@
         <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1313,14 +1368,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>55</v>
+      <c r="B10" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1329,19 +1384,19 @@
         <v>100</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1349,11 +1404,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1003</v>
+      <c r="B11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1364,8 +1419,8 @@
       <c r="F11" s="4">
         <v>100</v>
       </c>
-      <c r="G11" s="4">
-        <v>1004</v>
+      <c r="G11" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
@@ -1377,7 +1432,7 @@
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1386,13 +1441,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1401,19 +1456,19 @@
         <v>100</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1422,10 +1477,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1001</v>
+        <v>50</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -1437,10 +1492,10 @@
         <v>100</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I13" s="4">
         <v>3</v>
@@ -1449,7 +1504,7 @@
         <v>70</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1458,13 +1513,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E14" s="4">
         <v>10</v>
@@ -1473,10 +1528,10 @@
         <v>100</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I14" s="4">
         <v>4</v>
@@ -1485,7 +1540,7 @@
         <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1566,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>

--- a/程序用_正式版_对照版/ElementsDamage.xlsx
+++ b/程序用_正式版_对照版/ElementsDamage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfire_config_table\程序用_正式版_基础版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACAB641-71FE-4575-B851-7730D143006A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBBE059-E56C-40A2-B095-8DA63DF43F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="1110" windowWidth="31920" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="810" windowWidth="36795" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ElementsDamage" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
   </si>
@@ -284,10 +284,6 @@
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChapterID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1042,13 +1038,13 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="32.25" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
@@ -1063,37 +1059,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1101,13 +1097,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -1116,10 +1112,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
@@ -1128,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1136,51 +1132,51 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1189,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -1204,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -1216,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1225,13 +1221,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -1240,7 +1236,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -1252,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1261,13 +1257,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1276,7 +1272,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -1288,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1297,13 +1293,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1312,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -1324,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1333,10 +1329,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -1348,7 +1344,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
@@ -1360,7 +1356,7 @@
         <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1369,13 +1365,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -1384,7 +1380,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -1396,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1405,10 +1401,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1420,7 +1416,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
@@ -1432,7 +1428,7 @@
         <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1441,13 +1437,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1456,7 +1452,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
@@ -1468,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1477,10 +1473,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -1492,10 +1488,10 @@
         <v>100</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="4">
         <v>3</v>
@@ -1504,7 +1500,7 @@
         <v>70</v>
       </c>
       <c r="K13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1513,13 +1509,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="4">
         <v>10</v>
@@ -1528,10 +1524,10 @@
         <v>100</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="4">
         <v>4</v>
@@ -1540,7 +1536,7 @@
         <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1562,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>
